--- a/Data/DOC/20240130_Readme_NPOC_COMPASS_TEMPEST_EXP_DOC_RECOVERY_Set1.xlsx
+++ b/Data/DOC/20240130_Readme_NPOC_COMPASS_TEMPEST_EXP_DOC_RECOVERY_Set1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/opal_otenburg_pnnl_gov/Documents/Desktop/Synoptic NPOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/Data/DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7C483C-9C02-7242-8706-3F6BEA190096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BACC47-2CBE-1142-8284-6225C3D18751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{426E503E-EE1F-E344-9DB3-AD0710559367}"/>
+    <workbookView xWindow="2160" yWindow="760" windowWidth="28420" windowHeight="19920" xr2:uid="{426E503E-EE1F-E344-9DB3-AD0710559367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,9 +311,6 @@
     <t>Did not use curve, didn't go high enough</t>
   </si>
   <si>
-    <t>Slope: 3.457, Int: 0.1588, R2: 1.0000, 0.25ppm and 0.5ppm pt had shouldering but peak areas and rest of curve looked good so retained points</t>
-  </si>
-  <si>
     <t>NPOC: 0.1420 mg/L</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>GENERAL NOTE: checks, blanks, peaks looked good. Curve looked good, some shouldering in lower points, more info in notes.</t>
+  </si>
+  <si>
+    <t>Labeled at 0-10PPM in the instrument curve file name. Slope: 3.457, Int: 0.1588, R2: 1.0000, 0.25ppm and 0.5ppm pt had shouldering but peak areas and rest of curve looked good so retained points</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E51EA3-AA70-0A4E-9F4C-B0B4A44C6F45}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -841,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -854,8 +854,11 @@
       <c r="E17">
         <v>230</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -866,7 +869,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -877,7 +880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -888,7 +891,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -899,7 +902,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -910,7 +913,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -921,7 +924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -932,7 +935,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -943,7 +946,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -954,7 +957,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -962,7 +965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -970,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -978,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -989,7 +992,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">

--- a/Data/DOC/20240130_Readme_NPOC_COMPASS_TEMPEST_EXP_DOC_RECOVERY_Set1.xlsx
+++ b/Data/DOC/20240130_Readme_NPOC_COMPASS_TEMPEST_EXP_DOC_RECOVERY_Set1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/Data/DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BACC47-2CBE-1142-8284-6225C3D18751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657767DE-2FDB-B44C-8B50-20E223763B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="760" windowWidth="28420" windowHeight="19920" xr2:uid="{426E503E-EE1F-E344-9DB3-AD0710559367}"/>
+    <workbookView xWindow="3940" yWindow="-21100" windowWidth="28420" windowHeight="19920" xr2:uid="{426E503E-EE1F-E344-9DB3-AD0710559367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>Sample Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Sample wt</t>
   </si>
   <si>
-    <t>Total Vol:</t>
-  </si>
-  <si>
     <t>CKSTD_0.5ppmC</t>
   </si>
   <si>
@@ -324,6 +321,12 @@
   </si>
   <si>
     <t>Labeled at 0-10PPM in the instrument curve file name. Slope: 3.457, Int: 0.1588, R2: 1.0000, 0.25ppm and 0.5ppm pt had shouldering but peak areas and rest of curve looked good so retained points</t>
+  </si>
+  <si>
+    <t>Total vol</t>
+  </si>
+  <si>
+    <t>dilution correction</t>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E51EA3-AA70-0A4E-9F4C-B0B4A44C6F45}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,23 +706,23 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -727,7 +730,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>83</v>
@@ -735,7 +738,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -743,7 +746,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -751,7 +754,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -759,7 +762,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>84</v>
@@ -767,7 +770,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>85</v>
@@ -775,7 +778,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>86</v>
@@ -783,7 +786,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>87</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>88</v>
@@ -799,58 +802,61 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
       <c r="E17">
         <v>230</v>
       </c>
@@ -860,106 +866,160 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
       <c r="E18">
         <v>230</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
       <c r="E19">
         <v>230</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
       <c r="E20">
         <v>230</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
       <c r="E21">
         <v>230</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
       <c r="E22">
         <v>230</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
       <c r="E23">
         <v>230</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
       <c r="E24">
         <v>230</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
       <c r="E25">
         <v>230</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
       <c r="E26">
         <v>230</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -967,7 +1027,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -975,7 +1035,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -983,508 +1043,742 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
       <c r="E30">
         <v>230</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
       <c r="E31">
         <v>230</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
       <c r="E32">
         <v>230</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
       <c r="E33">
         <v>230</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
       <c r="E34">
         <v>230</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
       <c r="E35">
         <v>230</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
       <c r="E36">
         <v>230</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
       <c r="E37">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
       <c r="E38">
         <v>230</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
       <c r="E39">
         <v>230</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
       <c r="E43">
         <v>230</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
       <c r="E44">
         <v>230</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
       <c r="E45">
         <v>230</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
       <c r="E46">
         <v>230</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
       <c r="E47">
         <v>230</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
       <c r="E48">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
       <c r="E49">
         <v>230</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
       <c r="E50">
         <v>230</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
       <c r="E51">
         <v>230</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
       <c r="E52">
         <v>230</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
       <c r="E56">
         <v>230</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
       <c r="E57">
         <v>230</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
       <c r="E58">
         <v>230</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
       <c r="E59">
         <v>230</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
       <c r="E60">
         <v>230</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
       <c r="E61">
         <v>230</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
       <c r="E62">
         <v>230</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
       <c r="E63">
         <v>230</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
       <c r="E64">
         <v>230</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
       <c r="E65">
         <v>230</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
       <c r="E69">
         <v>230</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
       <c r="E70">
         <v>230</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
+      <c r="C71" t="s">
+        <v>96</v>
+      </c>
       <c r="E71">
         <v>230</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
       <c r="E72">
         <v>230</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
+      <c r="C73" t="s">
+        <v>96</v>
+      </c>
       <c r="E73">
         <v>230</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
       <c r="E74">
         <v>230</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
       <c r="E75">
         <v>400</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
       <c r="E76">
         <v>230</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
       <c r="E77">
         <v>230</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -1492,18 +1786,21 @@
       <c r="E78">
         <v>230</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -1511,7 +1808,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>14</v>
@@ -1519,7 +1816,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1527,18 +1824,18 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>11</v>
@@ -1546,7 +1843,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>12</v>
@@ -1554,7 +1851,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>13</v>
